--- a/BalanceSheet/EL_bal.xlsx
+++ b/BalanceSheet/EL_bal.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -91,7 +91,7 @@
     <col min="16" max="16" bestFit="1" customWidth="1" width="16.5"/>
     <col min="17" max="17" bestFit="1" customWidth="1" width="16.5"/>
     <col min="18" max="18" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="19" max="19" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="19" max="19" bestFit="1" customWidth="1" width="16.5"/>
     <col min="20" max="20" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="21" max="21" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="22" max="22" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="15.400000000000002"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>6399000000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>5545000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>4267000000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>5022000000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>4876000000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>3596000000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>2259000000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>2987000000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>2902000000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>2401000000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>1993000000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>2715000000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>2524000000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>2499000000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>1825000000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>1741000000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>1840000000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>1675000000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>1189000000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>1383000000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>1073800000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>1414200000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>1079300000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>1525100000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>1425000000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>1372000000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>1395400000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>1629100000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>1530200000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>1748000000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>1322200000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>1495700000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>1438600000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>1323600000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>1053700000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>1347700000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>1192800000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>999100000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>719500000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>1253000000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>1735000000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>1972000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>1812000000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>1194000000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>1846000000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>2225000000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>2294000000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>1831000000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>2036000000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>2000000000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>2214000000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>1487000000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>1761000000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>1699000000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>1799000000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>1395000000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>1528000000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>1508000000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>1624000000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>1258000000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>1416600000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>1410600000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>1539200000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>1174500000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>1350200000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>1399000000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>1502100000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>1379300000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>1399000000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>1501000000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>1566700000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>1171700000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>1361900000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>1531700000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>1604700000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>1060300000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>1304800000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>1383700000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>1378500000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>945600000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>2134000000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>2277000000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>2110000000.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>2100000000.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>2015000000.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>2172000000.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>2055000000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>2006000000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>1814000000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>1651000000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>1681000000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>1618000000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>1533000000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>1445000000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>1518000000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>1479000000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>1310000000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>1278000000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>1296000000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>1264000000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>1150500000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>1077400000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>1176700000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>1215800000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>1073100000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>1112300000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>1257000000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>1294000000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>1215400000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>1145900000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>1196300000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>1113900000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>989300000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>994100000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>1067900000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>983600000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>898700000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>898900000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>982200000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>995600000.0</v>
       </c>
     </row>
@@ -617,26 +630,26 @@
           <t>Other current assets</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>658000000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>512000000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>614000000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>424000000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>469000000.0</v>
       </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
           <t/>
@@ -798,6 +811,11 @@
         </is>
       </c>
       <c r="AN5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO5" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -810,120 +828,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>10997000000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>10291000000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>8795000000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>8892000000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>9233000000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>8348000000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>7022000000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>7212000000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>7160000000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>6440000000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>6249000000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>6168000000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>6169000000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>5975000000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>5507000000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>4964000000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>4972000000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>4789000000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>4401000000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>4225000000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>4252300000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>4475800000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>4383300000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>4183600000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>4429200000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>4426000000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>4727900000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>4825200000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>4691800000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>4925600000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>4632400000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>4297200000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>4286200000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>4341000000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>4213100000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>3855100000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>3899900000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>3753300000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>3562100000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>3686500000.0</v>
       </c>
     </row>
@@ -934,120 +955,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>2106000000.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>4467000000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>4399000000.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>4337000000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>4538000000.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>4603000000.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>2018000000.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>2068000000.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>1891000000.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>1859000000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>1838000000.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>1823000000.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>1726000000.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>1728000000.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>1695000000.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>1671000000.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>1576000000.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>1563000000.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>1569000000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>1583000000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>1510500000.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>1496800000.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>1468500000.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>1490200000.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>1398200000.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>1434200000.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>1444300000.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>1502600000.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>1434900000.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>1395400000.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>1364400000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>1350700000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>1296000000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>1301600000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>1268900000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>1231800000.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>1181800000.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>1151400000.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>1125100000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>1143100000.0</v>
       </c>
     </row>
@@ -1092,73 +1116,73 @@
           <t/>
         </is>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>173000000.0</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>600000000.0</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>661000000.0</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>843000000.0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>1027000000.0</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>1112000000.0</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>1087000000.0</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>1026000000.0</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>993000000.0</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>996000000.0</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="T8" s="0" t="n">
         <v>1050000000.0</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="U8" s="0" t="n">
         <v>1108000000.0</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="V8" s="0" t="n">
         <v>1075300000.0</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="W8" s="0" t="n">
         <v>772200000.0</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="X8" s="0" t="n">
         <v>710100000.0</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="Y8" s="0" t="n">
         <v>420300000.0</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Z8" s="0" t="n">
         <v>393700000.0</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="AA8" s="0" t="n">
         <v>387900000.0</v>
       </c>
-      <c r="AA8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AB8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC8" s="0" t="n">
         <v>13600000.0</v>
       </c>
-      <c r="AC8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AD8" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1210,6 +1234,11 @@
         </is>
       </c>
       <c r="AN8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1221,121 +1250,126 @@
           <t>Goodwill and Intangible Assets (Total)</t>
         </is>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>3825000000.0</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>3779000000.0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>3739000000.0</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>3823000000.0</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>4262000000.0</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>3059000000.0</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>3071000000.0</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>3080000000.0</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>3144000000.0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>3193000000.0</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>3202000000.0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>3224000000.0</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>3228000000.0</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>3237000000.0</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>3243000000.0</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>3279000000.0</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>3287000000.0</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="T9" s="0" t="n">
         <v>1569000000.0</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="U9" s="0" t="n">
         <v>1572000000.0</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>1577600000.0</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>1464400000.0</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>1466700000.0</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="Y9" s="0" t="n">
         <v>1471400000.0</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Z9" s="0" t="n">
         <v>1477400000.0</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="AA9" s="0" t="n">
         <v>1208800000.0</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <v>1047900000.0</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <v>1050500000.0</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <v>1051700000.0</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AE9" s="0" t="n">
         <v>1053300000.0</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AF9" s="0" t="n">
         <v>1051900000.0</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <v>1051100000.0</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>1071500000.0</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AI9" s="0" t="n">
         <v>1073700000.0</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AJ9" s="0" t="n">
         <v>1073400000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>1072700000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>1090500000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>1090800000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>1098800000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>1104800000.0</v>
       </c>
     </row>
@@ -1346,120 +1380,123 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>4585000000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>1012000000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>930000000.0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>769000000.0</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>769000000.0</v>
       </c>
       <c r="F10" s="0" t="n">
+        <v>769000000.0</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>724000000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>816000000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>805000000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>627000000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>633000000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>602000000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>531000000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>626000000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>561000000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>676000000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>664000000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>625000000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>577000000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>759000000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>735000000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>400600000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>372900000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>396800000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>661400000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>396600000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>399700000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>444200000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>476900000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>467600000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>466900000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>471800000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>446200000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>441400000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>453800000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>452200000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>433400000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>429300000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>346700000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>349400000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>339500000.0</v>
       </c>
     </row>
@@ -1470,120 +1507,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>8903000000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>9304000000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>9108000000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>8889000000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>9130000000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>9589000000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>8409000000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>5944000000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>5771000000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>6236000000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>6294000000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>6399000000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>6603000000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>6629000000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>6695000000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>6604000000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>6473000000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>6423000000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>4947000000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>4998000000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>4564000000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>4106300000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>4042100000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>4043300000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>3665900000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>3430600000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>2936400000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>3043600000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>2954200000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>2915600000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>2888100000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>2848000000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>2808900000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>2829100000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>2794500000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>2737900000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>2701600000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>2588900000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>2573300000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>2587400000.0</v>
       </c>
     </row>
@@ -1594,120 +1634,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>19900000000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>19595000000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>17903000000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>17781000000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>18363000000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>17937000000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>15431000000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>13156000000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>12931000000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>12676000000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>12543000000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>12567000000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>12772000000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>12604000000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>12202000000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>11568000000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>11445000000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>11212000000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>9348000000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>9223000000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>8816300000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>8582100000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>8425400000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>8226900000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>8095100000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>7856600000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>7664300000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>7868800000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>7646000000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>7841200000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>7520500000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>7145200000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>7095100000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>7170100000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>7007600000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>6593000000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>6601500000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>6342200000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>6135400000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>6273900000.0</v>
       </c>
     </row>
@@ -1718,120 +1761,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>1277000000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>1383000000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>1157000000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>1186000000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>1220000000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>1162000000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>1071000000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>1490000000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>1068000000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>995000000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>913000000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>1182000000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>884000000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>738000000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>679000000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>835000000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>597000000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>617000000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>546000000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>717000000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>572500000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>527400000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>514600000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>635400000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>497700000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>495000000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>516100000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>524500000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>512500000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>493300000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>461900000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>481700000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>388200000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>345700000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>421700000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>493800000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>406600000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>384800000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>424200000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>446700000.0</v>
       </c>
     </row>
@@ -1842,120 +1888,123 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>471000000.0</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>857000000.0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>872000000.0</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>1597000000.0</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>1898000000.0</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>891000000.0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>520000000.0</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>516000000.0</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>516000000.0</v>
       </c>
       <c r="J14" s="0" t="n">
+        <v>516000000.0</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>18000000.0</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>183000000.0</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>183000000.0</v>
       </c>
       <c r="M14" s="0" t="n">
+        <v>183000000.0</v>
+      </c>
+      <c r="N14" s="0" t="n">
         <v>296000000.0</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>413000000.0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>552000000.0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>189000000.0</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>519000000.0</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>2143000000.0</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>592000000.0</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>332000000.0</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>312800000.0</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>374400000.0</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>453700000.0</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>29800000.0</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>135300000.0</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>68500000.0</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>14000000.0</v>
-      </c>
-      <c r="AB14" s="0" t="n">
-        <v>18400000.0</v>
       </c>
       <c r="AC14" s="0" t="n">
         <v>18400000.0</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>15900000.0</v>
+        <v>18400000.0</v>
       </c>
       <c r="AE14" s="0" t="n">
         <v>15900000.0</v>
       </c>
       <c r="AF14" s="0" t="n">
+        <v>15900000.0</v>
+      </c>
+      <c r="AG14" s="0" t="n">
         <v>18300000.0</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>20000000.0</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>26000000.0</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>24000000.0</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>219000000.0</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AL14" s="0" t="n">
         <v>144000000.0</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AM14" s="0" t="n">
         <v>143800000.0</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AN14" s="0" t="n">
         <v>141800000.0</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AO14" s="0" t="n">
         <v>138000000.0</v>
       </c>
     </row>
@@ -2120,28 +2169,33 @@
           <t/>
         </is>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AG15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH15" s="0" t="n">
         <v>168800000.0</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AI15" s="0" t="n">
         <v>300400000.0</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AJ15" s="0" t="n">
         <v>183600000.0</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AK15" s="0" t="n">
         <v>97200000.0</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AL15" s="0" t="n">
         <v>180400000.0</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AM15" s="0" t="n">
         <v>207100000.0</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AN15" s="0" t="n">
         <v>163900000.0</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AO15" s="0" t="n">
         <v>62300000.0</v>
       </c>
     </row>
@@ -2151,26 +2205,26 @@
           <t>Other current liabilities</t>
         </is>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>2945000000.0</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>2425000000.0</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>2405000000.0</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>2621000000.0</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>2925000000.0</v>
       </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2332,6 +2386,11 @@
         </is>
       </c>
       <c r="AN16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO16" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2344,120 +2403,123 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>5197000000.0</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>5420000000.0</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>4744000000.0</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>5179000000.0</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>5681000000.0</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>4953000000.0</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>4590000000.0</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>4605000000.0</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>4231000000.0</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>3776000000.0</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>3563000000.0</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>3310000000.0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>3388000000.0</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>3403000000.0</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>3142000000.0</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>2823000000.0</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>2860000000.0</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>4458000000.0</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>2712000000.0</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>2681000000.0</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>2433700000.0</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>2479400000.0</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>2454300000.0</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>2129800000.0</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>2097400000.0</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>2044200000.0</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>1941700000.0</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>2056700000.0</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>2039300000.0</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>2039100000.0</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>1987600000.0</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>1934600000.0</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>1915900000.0</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>2052200000.0</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>1972400000.0</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>2125800000.0</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>2058200000.0</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>2022100000.0</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>1969600000.0</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>1943300000.0</v>
       </c>
     </row>
@@ -2468,120 +2530,123 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
+        <v>5487000000.0</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>7227000000.0</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>7222000000.0</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>7192000000.0</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>6962000000.0</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>6980000000.0</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>2895000000.0</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>2896000000.0</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>2883000000.0</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>3373000000.0</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>3361000000.0</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>3361000000.0</v>
       </c>
       <c r="M18" s="0" t="n">
+        <v>3361000000.0</v>
+      </c>
+      <c r="N18" s="0" t="n">
         <v>3363000000.0</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>3374000000.0</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>3383000000.0</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>3383000000.0</v>
       </c>
       <c r="Q18" s="0" t="n">
+        <v>3383000000.0</v>
+      </c>
+      <c r="R18" s="0" t="n">
         <v>3377000000.0</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>1890000000.0</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>1908000000.0</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>1910000000.0</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>1612500000.0</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>1607300000.0</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>1612500000.0</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>1595100000.0</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>1317500000.0</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>1320700000.0</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>1319000000.0</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>1324700000.0</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>1327700000.0</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>1322900000.0</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>1324700000.0</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>1326000000.0</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>1329200000.0</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>1330100000.0</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>1330700000.0</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>1069100000.0</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>1065900000.0</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>1068700000.0</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>1072800000.0</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>1080100000.0</v>
       </c>
     </row>
@@ -2591,26 +2656,26 @@
           <t>Long Term Tax Liability (Deferred)</t>
         </is>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>-10000000.0</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>-39000000.0</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>-122000000.0</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>-72000000.0</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>-4000000.0</v>
       </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2772,6 +2837,11 @@
         </is>
       </c>
       <c r="AN19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO19" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2784,120 +2854,123 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
+        <v>1460000000.0</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>1492000000.0</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>1456000000.0</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>1448000000.0</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>1362000000.0</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>1403000000.0</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>1053000000.0</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>1244000000.0</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>1200000000.0</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>1194000000.0</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>1189000000.0</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>1186000000.0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>1284000000.0</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>1238000000.0</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>924000000.0</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>960000000.0</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>1073000000.0</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>1056000000.0</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>1053000000.0</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>1045000000.0</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>947700000.0</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>879900000.0</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>856600000.0</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>847700000.0</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>815300000.0</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>662400000.0</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>609400000.0</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>618000000.0</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>596600000.0</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>596100000.0</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>595700000.0</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>582700000.0</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>643200000.0</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>664700000.0</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>664000000.0</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>650600000.0</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>621900000.0</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>607700000.0</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>601000000.0</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>603500000.0</v>
       </c>
     </row>
@@ -2908,120 +2981,123 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>9145000000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>8719000000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>8678000000.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>8640000000.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>8324000000.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>8383000000.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>6283000000.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>4140000000.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>4083000000.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>4567000000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>4550000000.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>4547000000.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>4647000000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>4612000000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>4307000000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>4343000000.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>4450000000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>2946000000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>2961000000.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>2955000000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>2560200000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>2487200000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>2469100000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>2442800000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>2132800000.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>1983100000.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>1928400000.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>1942700000.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>1924300000.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>1919000000.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>1920400000.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>1908700000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>1972400000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>1994800000.0</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>1994700000.0</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>1719700000.0</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>1687800000.0</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>1676400000.0</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>1673800000.0</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>1683600000.0</v>
       </c>
     </row>
@@ -3032,120 +3108,123 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>14342000000.0</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>14139000000.0</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>13422000000.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>13819000000.0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>14005000000.0</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>13336000000.0</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>10873000000.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>8745000000.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>8314000000.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>8343000000.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>8113000000.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>7857000000.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>8035000000.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>8015000000.0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>7449000000.0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>7166000000.0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>7310000000.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>7404000000.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>5673000000.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>5636000000.0</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>4993900000.0</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>4966600000.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>4923400000.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>4572600000.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>4230200000.0</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>4027300000.0</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>3870100000.0</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>3999400000.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>3963600000.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>3958100000.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>3908000000.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>3843300000.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>3888300000.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>4047000000.0</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>3967100000.0</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>3845500000.0</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>3746000000.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>3698500000.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>3643400000.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>3626900000.0</v>
       </c>
     </row>
@@ -3155,121 +3234,126 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>5068000000.0</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>4913000000.0</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>4790000000.0</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>4760000000.0</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>4615000000.0</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>4514000000.0</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>4403000000.0</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>4331000000.0</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>4162000000.0</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>4065000000.0</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>3972000000.0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>3911000000.0</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>3773000000.0</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>3665000000.0</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>3559000000.0</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>3462000000.0</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>3349000000.0</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>3286000000.0</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>3161000000.0</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>3090400000.0</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>3019400000.0</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>2953800000.0</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>2871600000.0</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>2816700000.0</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>2700800000.0</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>2647000000.0</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>2562700000.0</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>2498200000.0</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>2437300000.0</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>2365900000.0</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>2289900000.0</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>2237200000.0</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>2161500000.0</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>2095400000.0</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>2006100000.0</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>1952800000.0</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>1882300000.0</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>1789200000.0</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>1735600000.0</v>
       </c>
     </row>
@@ -3279,8 +3363,10 @@
           <t>Common Stock (Net)</t>
         </is>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>6000000.0</v>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C24" s="0" t="n">
         <v>6000000.0</v>
@@ -3337,7 +3423,7 @@
         <v>6000000.0</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>5700000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="V24" s="0" t="n">
         <v>5700000.0</v>
@@ -3352,7 +3438,7 @@
         <v>5700000.0</v>
       </c>
       <c r="Z24" s="0" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="AA24" s="0" t="n">
         <v>5600000.0</v>
@@ -3379,7 +3465,7 @@
         <v>5600000.0</v>
       </c>
       <c r="AI24" s="0" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="AJ24" s="0" t="n">
         <v>5500000.0</v>
@@ -3391,9 +3477,12 @@
         <v>5500000.0</v>
       </c>
       <c r="AM24" s="0" t="n">
+        <v>5500000.0</v>
+      </c>
+      <c r="AN24" s="0" t="n">
         <v>2700000.0</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AO24" s="0" t="n">
         <v>5500000.0</v>
       </c>
     </row>
@@ -3403,121 +3492,126 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>11159000000.0</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>10480000000.0</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>10134000000.0</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>10595000000.0</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>10775000000.0</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>10393000000.0</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>9984000000.0</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>9984000000.0</v>
       </c>
       <c r="J25" s="0" t="n">
+        <v>9984000000.0</v>
+      </c>
+      <c r="K25" s="0" t="n">
         <v>9586000000.0</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>9170000000.0</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>9040000000.0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>8996000000.0</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>8733000000.0</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>8752000000.0</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>8452000000.0</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>8350000000.0</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>8178000000.0</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>7876000000.0</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>7693000000.0</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>7711600000.0</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>7557900000.0</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>7223700000.0</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>7004100000.0</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>6942100000.0</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>6761500000.0</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>6417400000.0</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>6265800000.0</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>6085100000.0</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>5949100000.0</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>5594700000.0</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>5364100000.0</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>5340300000.0</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>5231600000.0</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>5064400000.0</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>4764900000.0</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>4715300000.0</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>4584900000.0</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>4395100000.0</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>4113700000.0</v>
       </c>
     </row>
@@ -3527,121 +3621,126 @@
           <t>Treasury Stock</t>
         </is>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>10429000000.0</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>10353000000.0</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>10330000000.0</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>10320000000.0</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>10253000000.0</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>9756000000.0</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>9444000000.0</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>9235000000.0</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>9018000000.0</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>8426000000.0</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>7896000000.0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>7816000000.0</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>7540000000.0</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>7257000000.0</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>7149000000.0</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>7100000000.0</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>7101000000.0</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>6963000000.0</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>6743000000.0</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>6556600000.0</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>6482000000.0</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>6243400000.0</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>5856700000.0</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>5500500000.0</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>5354600000.0</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>5085700000.0</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>4878900000.0</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>4812100000.0</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>4417100000.0</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>4274100000.0</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>4215200000.0</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>4191000000.0</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AI26" s="0" t="n">
         <v>4154900000.0</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>3995700000.0</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AK26" s="0" t="n">
         <v>3830400000.0</v>
       </c>
-      <c r="AK26" s="0" t="n">
+      <c r="AL26" s="0" t="n">
         <v>3788800000.0</v>
       </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AM26" s="0" t="n">
         <v>3762600000.0</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AN26" s="0" t="n">
         <v>3645500000.0</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AO26" s="0" t="n">
         <v>3243100000.0</v>
       </c>
     </row>
@@ -3651,121 +3750,126 @@
           <t>Common Equity (Total)</t>
         </is>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>5421000000.0</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>4452000000.0</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>3935000000.0</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>4329000000.0</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>4574000000.0</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>4558000000.0</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>4411000000.0</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>4617000000.0</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>4333000000.0</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>4430000000.0</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>4710000000.0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>4737000000.0</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>4589000000.0</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>4753000000.0</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>4402000000.0</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>4135000000.0</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>3808000000.0</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>3675000000.0</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>3587000000.0</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>3822400000.0</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>3615500000.0</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>3502000000.0</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>3654300000.0</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>3864900000.0</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>3829300000.0</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>3794200000.0</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>3869400000.0</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>3682400000.0</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>3883100000.0</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>3612500000.0</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>3301900000.0</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>3206800000.0</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>3123100000.0</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>3040500000.0</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>2747500000.0</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>2855500000.0</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>2643700000.0</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>2492000000.0</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>2647000000.0</v>
       </c>
     </row>
@@ -3776,120 +3880,123 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>5558000000.0</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>5421000000.0</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>4452000000.0</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>3935000000.0</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>4329000000.0</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>4574000000.0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>4558000000.0</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>4411000000.0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>4617000000.0</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>4333000000.0</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>4430000000.0</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>4710000000.0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>4737000000.0</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>4589000000.0</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>4753000000.0</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>4402000000.0</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>4135000000.0</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>3808000000.0</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>3675000000.0</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>3587000000.0</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>3822400000.0</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>3615500000.0</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>3502000000.0</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>3654300000.0</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>3864900000.0</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>3829300000.0</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>3794200000.0</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>3869400000.0</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>3682400000.0</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>3883100000.0</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>3612500000.0</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>3301900000.0</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>3206800000.0</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>3123100000.0</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>3040500000.0</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>2747500000.0</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>2855500000.0</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>2643700000.0</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>2492000000.0</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>2647000000.0</v>
       </c>
     </row>
@@ -3900,120 +4007,123 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>19900000000.0</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>19595000000.0</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>17903000000.0</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>17781000000.0</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>18363000000.0</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>17937000000.0</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>15431000000.0</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>13156000000.0</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>12931000000.0</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>12676000000.0</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>12543000000.0</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>12567000000.0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>12772000000.0</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>12604000000.0</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>12202000000.0</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>11568000000.0</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>11445000000.0</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>11212000000.0</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>9348000000.0</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>9223000000.0</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>8816300000.0</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>8582100000.0</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>8425400000.0</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>8226900000.0</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>8095100000.0</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>7856600000.0</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>7664300000.0</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>7868800000.0</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>7646000000.0</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>7841200000.0</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>7520500000.0</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>7145200000.0</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>7095100000.0</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>7170100000.0</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>7007600000.0</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AK29" s="0" t="n">
         <v>6593000000.0</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AL29" s="0" t="n">
         <v>6601500000.0</v>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AM29" s="0" t="n">
         <v>6342200000.0</v>
       </c>
-      <c r="AM29" s="0" t="n">
+      <c r="AN29" s="0" t="n">
         <v>6135400000.0</v>
       </c>
-      <c r="AN29" s="0" t="n">
+      <c r="AO29" s="0" t="n">
         <v>6273900000.0</v>
       </c>
     </row>
@@ -4023,121 +4133,126 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>362633000.0</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>361491000.0</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>360525000.0</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>359986000.0</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>359396000.0</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>360702000.0</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>361102000.0</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>361773000.0</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>361860000.0</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>364445000.0</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>367146000.0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>367301000.0</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>368074000.0</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>368523000.0</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>368103000.0</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>367705000.0</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>366136000.0</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>366323000.0</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>367760000.0</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>369172000.0</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>369394000.0</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>370690000.0</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>374882000.0</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>378375000.0</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>378840000.0</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>381228000.0</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>382884000.0</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>382928000.0</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>387951000.0</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>387939000.0</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>387994000.0</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>387698000.0</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>386916000.0</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>387210000.0</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>388897000.0</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>388711000.0</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>387673000.0</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>387000000.0</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>394562000.0</v>
       </c>
     </row>
@@ -4148,120 +4263,123 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
+        <v>5558000000.0</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>1631000000.0</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="D31" s="0" t="n">
         <v>702000000.0</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="E31" s="0" t="n">
         <v>223000000.0</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>535000000.0</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>339000000.0</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>1499000000.0</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>1340000000.0</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>1537000000.0</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>1189000000.0</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>1237000000.0</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>1508000000.0</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>1513000000.0</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <v>1361000000.0</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="P31" s="0" t="n">
         <v>1516000000.0</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="Q31" s="0" t="n">
         <v>1159000000.0</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>856000000.0</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="S31" s="0" t="n">
         <v>521000000.0</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="T31" s="0" t="n">
         <v>2106000000.0</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="U31" s="0" t="n">
         <v>2015000000.0</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="V31" s="0" t="n">
         <v>2244800000.0</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="W31" s="0" t="n">
         <v>2151100000.0</v>
       </c>
-      <c r="W31" s="0" t="n">
+      <c r="X31" s="0" t="n">
         <v>2035300000.0</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="Y31" s="0" t="n">
         <v>2182900000.0</v>
       </c>
-      <c r="Y31" s="0" t="n">
+      <c r="Z31" s="0" t="n">
         <v>2387500000.0</v>
       </c>
-      <c r="Z31" s="0" t="n">
+      <c r="AA31" s="0" t="n">
         <v>2620500000.0</v>
       </c>
-      <c r="AA31" s="0" t="n">
+      <c r="AB31" s="0" t="n">
         <v>2746300000.0</v>
       </c>
-      <c r="AB31" s="0" t="n">
+      <c r="AC31" s="0" t="n">
         <v>2818900000.0</v>
       </c>
-      <c r="AC31" s="0" t="n">
+      <c r="AD31" s="0" t="n">
         <v>2630700000.0</v>
       </c>
-      <c r="AD31" s="0" t="n">
+      <c r="AE31" s="0" t="n">
         <v>2829800000.0</v>
       </c>
-      <c r="AE31" s="0" t="n">
+      <c r="AF31" s="0" t="n">
         <v>2560600000.0</v>
       </c>
-      <c r="AF31" s="0" t="n">
+      <c r="AG31" s="0" t="n">
         <v>2250800000.0</v>
       </c>
-      <c r="AG31" s="0" t="n">
+      <c r="AH31" s="0" t="n">
         <v>2135300000.0</v>
       </c>
-      <c r="AH31" s="0" t="n">
+      <c r="AI31" s="0" t="n">
         <v>2049400000.0</v>
       </c>
-      <c r="AI31" s="0" t="n">
+      <c r="AJ31" s="0" t="n">
         <v>1967100000.0</v>
       </c>
-      <c r="AJ31" s="0" t="n">
+      <c r="AK31" s="0" t="n">
         <v>1674800000.0</v>
       </c>
-      <c r="AK31" s="0" t="n">
+      <c r="AL31" s="0" t="n">
         <v>1765000000.0</v>
       </c>
-      <c r="AL31" s="0" t="n">
+      <c r="AM31" s="0" t="n">
         <v>1552900000.0</v>
       </c>
-      <c r="AM31" s="0" t="n">
+      <c r="AN31" s="0" t="n">
         <v>1393200000.0</v>
       </c>
-      <c r="AN31" s="0" t="n">
+      <c r="AO31" s="0" t="n">
         <v>1542200000.0</v>
       </c>
     </row>
@@ -4271,121 +4389,126 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>2539000000.0</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="D32" s="0" t="n">
         <v>3827000000.0</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="E32" s="0" t="n">
         <v>3767000000.0</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>3984000000.0</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="G32" s="0" t="n">
         <v>4275000000.0</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>1156000000.0</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>425000000.0</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>497000000.0</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>990000000.0</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>1551000000.0</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>829000000.0</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>1135000000.0</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>1288000000.0</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>2110000000.0</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="Q32" s="0" t="n">
         <v>1831000000.0</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="R32" s="0" t="n">
         <v>2056000000.0</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="S32" s="0" t="n">
         <v>2358000000.0</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="T32" s="0" t="n">
         <v>1311000000.0</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="U32" s="0" t="n">
         <v>859000000.0</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="V32" s="0" t="n">
         <v>851500000.0</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="W32" s="0" t="n">
         <v>567500000.0</v>
       </c>
-      <c r="W32" s="0" t="n">
+      <c r="X32" s="0" t="n">
         <v>986900000.0</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="Y32" s="0" t="n">
         <v>99800000.0</v>
       </c>
-      <c r="Y32" s="0" t="n">
+      <c r="Z32" s="0" t="n">
         <v>27800000.0</v>
       </c>
-      <c r="Z32" s="0" t="n">
+      <c r="AA32" s="0" t="n">
         <v>17200000.0</v>
       </c>
-      <c r="AA32" s="0" t="n">
+      <c r="AB32" s="0" t="n">
         <v>-62400000.0</v>
       </c>
-      <c r="AB32" s="0" t="n">
+      <c r="AC32" s="0" t="n">
         <v>-286000000.0</v>
       </c>
-      <c r="AC32" s="0" t="n">
+      <c r="AD32" s="0" t="n">
         <v>-184100000.0</v>
       </c>
-      <c r="AD32" s="0" t="n">
+      <c r="AE32" s="0" t="n">
         <v>-409200000.0</v>
       </c>
-      <c r="AE32" s="0" t="n">
+      <c r="AF32" s="0" t="n">
         <v>18400000.0</v>
       </c>
-      <c r="AF32" s="0" t="n">
+      <c r="AG32" s="0" t="n">
         <v>-151400000.0</v>
       </c>
-      <c r="AG32" s="0" t="n">
+      <c r="AH32" s="0" t="n">
         <v>-89400000.0</v>
       </c>
-      <c r="AH32" s="0" t="n">
+      <c r="AI32" s="0" t="n">
         <v>32500000.0</v>
       </c>
-      <c r="AI32" s="0" t="n">
+      <c r="AJ32" s="0" t="n">
         <v>301000000.0</v>
       </c>
-      <c r="AJ32" s="0" t="n">
+      <c r="AK32" s="0" t="n">
         <v>-59600000.0</v>
       </c>
-      <c r="AK32" s="0" t="n">
+      <c r="AL32" s="0" t="n">
         <v>17100000.0</v>
       </c>
-      <c r="AL32" s="0" t="n">
+      <c r="AM32" s="0" t="n">
         <v>213400000.0</v>
       </c>
-      <c r="AM32" s="0" t="n">
+      <c r="AN32" s="0" t="n">
         <v>495100000.0</v>
       </c>
-      <c r="AN32" s="0" t="n">
+      <c r="AO32" s="0" t="n">
         <v>-34900000.0</v>
       </c>
     </row>
@@ -4395,121 +4518,126 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C33" s="0" t="n">
         <v>8084000000.0</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="D33" s="0" t="n">
         <v>8094000000.0</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="E33" s="0" t="n">
         <v>8789000000.0</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="F33" s="0" t="n">
         <v>8860000000.0</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="G33" s="0" t="n">
         <v>7871000000.0</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="H33" s="0" t="n">
         <v>3415000000.0</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="I33" s="0" t="n">
         <v>3412000000.0</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="J33" s="0" t="n">
         <v>3399000000.0</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="K33" s="0" t="n">
         <v>3391000000.0</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>3544000000.0</v>
       </c>
       <c r="L33" s="0" t="n">
         <v>3544000000.0</v>
       </c>
       <c r="M33" s="0" t="n">
+        <v>3544000000.0</v>
+      </c>
+      <c r="N33" s="0" t="n">
         <v>3659000000.0</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="O33" s="0" t="n">
         <v>3787000000.0</v>
       </c>
-      <c r="O33" s="0" t="n">
+      <c r="P33" s="0" t="n">
         <v>3935000000.0</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="Q33" s="0" t="n">
         <v>3572000000.0</v>
       </c>
-      <c r="Q33" s="0" t="n">
+      <c r="R33" s="0" t="n">
         <v>3896000000.0</v>
       </c>
-      <c r="R33" s="0" t="n">
+      <c r="S33" s="0" t="n">
         <v>4033000000.0</v>
       </c>
-      <c r="S33" s="0" t="n">
+      <c r="T33" s="0" t="n">
         <v>2500000000.0</v>
       </c>
-      <c r="T33" s="0" t="n">
+      <c r="U33" s="0" t="n">
         <v>2242000000.0</v>
       </c>
-      <c r="U33" s="0" t="n">
+      <c r="V33" s="0" t="n">
         <v>1925300000.0</v>
       </c>
-      <c r="V33" s="0" t="n">
+      <c r="W33" s="0" t="n">
         <v>1981700000.0</v>
       </c>
-      <c r="W33" s="0" t="n">
+      <c r="X33" s="0" t="n">
         <v>2066200000.0</v>
       </c>
-      <c r="X33" s="0" t="n">
+      <c r="Y33" s="0" t="n">
         <v>1624900000.0</v>
       </c>
-      <c r="Y33" s="0" t="n">
+      <c r="Z33" s="0" t="n">
         <v>1452800000.0</v>
       </c>
-      <c r="Z33" s="0" t="n">
+      <c r="AA33" s="0" t="n">
         <v>1389200000.0</v>
       </c>
-      <c r="AA33" s="0" t="n">
+      <c r="AB33" s="0" t="n">
         <v>1333000000.0</v>
       </c>
-      <c r="AB33" s="0" t="n">
+      <c r="AC33" s="0" t="n">
         <v>1343100000.0</v>
       </c>
-      <c r="AC33" s="0" t="n">
+      <c r="AD33" s="0" t="n">
         <v>1346100000.0</v>
       </c>
-      <c r="AD33" s="0" t="n">
+      <c r="AE33" s="0" t="n">
         <v>1338800000.0</v>
       </c>
-      <c r="AE33" s="0" t="n">
+      <c r="AF33" s="0" t="n">
         <v>1340600000.0</v>
       </c>
-      <c r="AF33" s="0" t="n">
+      <c r="AG33" s="0" t="n">
         <v>1344300000.0</v>
       </c>
-      <c r="AG33" s="0" t="n">
+      <c r="AH33" s="0" t="n">
         <v>1349200000.0</v>
       </c>
-      <c r="AH33" s="0" t="n">
+      <c r="AI33" s="0" t="n">
         <v>1356100000.0</v>
       </c>
-      <c r="AI33" s="0" t="n">
+      <c r="AJ33" s="0" t="n">
         <v>1354700000.0</v>
       </c>
-      <c r="AJ33" s="0" t="n">
+      <c r="AK33" s="0" t="n">
         <v>1288100000.0</v>
       </c>
-      <c r="AK33" s="0" t="n">
+      <c r="AL33" s="0" t="n">
         <v>1209900000.0</v>
       </c>
-      <c r="AL33" s="0" t="n">
+      <c r="AM33" s="0" t="n">
         <v>1212500000.0</v>
       </c>
-      <c r="AM33" s="0" t="n">
+      <c r="AN33" s="0" t="n">
         <v>1214600000.0</v>
       </c>
-      <c r="AN33" s="0" t="n">
+      <c r="AO33" s="0" t="n">
         <v>1218100000.0</v>
       </c>
     </row>
